--- a/biology/Médecine/1430_en_santé_et_médecine/1430_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1430_en_santé_et_médecine/1430_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1430_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1430_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1430 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1430_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1430_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,13 +523,15 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Fondation à Londres de la maison de charité de Saint-Augustin, dite « the Papey », « où sont accueillis les malades et les pauvres[1] ».
-Fondation de l'hôpital Saint-Antoine à Leith, en Écosse, par Robert Logan[2].
-L'hôpital Saint-Jean, fondé en 1408 à Saint-Omer en Artois pour recevoir les pauvres, accueille dorénavant aussi les malades[3].
-Les patients souffrant de maladies vénériennes sont exclus des hôpitaux publics de Londres[4].
-Vers 1430 : le chirurgien sicilien Antonio Branca décrit une technique de reconstruction nasale par lambeau du bras[5],[6].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Fondation à Londres de la maison de charité de Saint-Augustin, dite « the Papey », « où sont accueillis les malades et les pauvres ».
+Fondation de l'hôpital Saint-Antoine à Leith, en Écosse, par Robert Logan.
+L'hôpital Saint-Jean, fondé en 1408 à Saint-Omer en Artois pour recevoir les pauvres, accueille dorénavant aussi les malades.
+Les patients souffrant de maladies vénériennes sont exclus des hôpitaux publics de Londres.
+Vers 1430 : le chirurgien sicilien Antonio Branca décrit une technique de reconstruction nasale par lambeau du bras,.</t>
         </is>
       </c>
     </row>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1430_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1430_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,15 +559,17 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Adam Fumée (mort en 1494), garde des sceaux et Premier médecin des rois de France Charles VII, Louis XI et Charles VIII[7].
-Guillaume Brun (mort en 1509), médecin et magistrat français, médecin du roi Louis XI[8].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Adam Fumée (mort en 1494), garde des sceaux et Premier médecin des rois de France Charles VII, Louis XI et Charles VIII.
+Guillaume Brun (mort en 1509), médecin et magistrat français, médecin du roi Louis XI.
 Vers 1430 :
-Jacques Coitier (mort en 1506), Premier médecin du roi Louis XI[9] ;
-Jérôme Manfredi (it) (mort en 1493), professeur d'astrologie médicale à Bologne, auteur d'une Anothomia, recueil d'abrégés d'auteurs anciens et modernes, publié en 1490[10],[11] ;
-Johannes de Cuba (mort vers 1503), médecin et botaniste allemand, auteur en 1485 du Jardin de santé, premier livre d’histoire naturelle imprimé en langue vulgaire[12] ;
-Rolando dè Capelluti (mort après 1480), médecin parmesan,  fils de Rinaldo Capelluti, également médecin, auteur de divers traités, sur la peste, l'otite ou la profession de médecin[13].</t>
+Jacques Coitier (mort en 1506), Premier médecin du roi Louis XI ;
+Jérôme Manfredi (it) (mort en 1493), professeur d'astrologie médicale à Bologne, auteur d'une Anothomia, recueil d'abrégés d'auteurs anciens et modernes, publié en 1490, ;
+Johannes de Cuba (mort vers 1503), médecin et botaniste allemand, auteur en 1485 du Jardin de santé, premier livre d’histoire naturelle imprimé en langue vulgaire ;
+Rolando dè Capelluti (mort après 1480), médecin parmesan,  fils de Rinaldo Capelluti, également médecin, auteur de divers traités, sur la peste, l'otite ou la profession de médecin.</t>
         </is>
       </c>
     </row>
@@ -563,7 +579,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1430_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1430_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -581,9 +597,11 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Avant le 6 novembre : Aubry Andree de Tullo (né à une date inconnue), maître ès arts à Paris, étudiant en médecine à Montpellier, médecin du couvent des Cordeliers d'Avignon[14].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Avant le 6 novembre : Aubry Andree de Tullo (né à une date inconnue), maître ès arts à Paris, étudiant en médecine à Montpellier, médecin du couvent des Cordeliers d'Avignon.</t>
         </is>
       </c>
     </row>
